--- a/Data/SuppliersDetailsUpdated.xlsx
+++ b/Data/SuppliersDetailsUpdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pojesh\Documents\uipath\SupplyManagementAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E513798-18ED-4193-8E74-6D2120CCF1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52280A64-242C-4E99-BDB2-AECEDDA417F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/SuppliersDetailsUpdated.xlsx
+++ b/Data/SuppliersDetailsUpdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pojesh\Documents\uipath\SupplyManagementAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52280A64-242C-4E99-BDB2-AECEDDA417F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A209A-763C-44AF-B00A-2B3EE47C8908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
